--- a/templates/medical_template.xlsx
+++ b/templates/medical_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adith\Desktop\Elimai Hiring Assignment\Question_2\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11E167B-1299-4A76-A916-4F6976155015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661B298-4242-45B0-801F-F0DF15938D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{52A4F88C-9545-4DD5-A648-98A7C7D432E9}"/>
   </bookViews>
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657780FA-037E-4AA0-A2E3-A501A9575CE1}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
